--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:02:45+00:00</t>
+    <t>2023-02-07T15:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1407,10 +1404,10 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>CarePlan.activity.detail.extension:artRegimenLineCurrent</t>
-  </si>
-  <si>
-    <t>artRegimenLineCurrent</t>
+    <t>CarePlan.activity.detail.extension:artRegimenLineInitiated</t>
+  </si>
+  <si>
+    <t>artRegimenLineInitiated</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/art-regimen-line}
@@ -1424,10 +1421,10 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.activity.detail.extension:artRegimenLineInitiated</t>
-  </si>
-  <si>
-    <t>artRegimenLineInitiated</t>
+    <t>CarePlan.activity.detail.extension:artRegimenLineCurrent</t>
+  </si>
+  <si>
+    <t>artRegimenLineCurrent</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -1443,6 +1440,9 @@
   </si>
   <si>
     <t>May determine what types of extensions are permitted.</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
   </si>
   <si>
     <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
@@ -1486,6 +1486,15 @@
   </si>
   <si>
     <t>Allows matching performed to planned as well as validation against protocols.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="45260-7"/&gt;
+    &lt;display value="HIV ART medication"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
@@ -1923,21 +1932,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2286,7 +2280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2398,7 +2392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2512,7 +2506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2624,7 +2618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2738,7 +2732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2966,7 +2960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -3194,7 +3188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -3310,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -3654,7 +3648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3768,7 +3762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
@@ -3884,7 +3878,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>206</v>
       </c>
@@ -4230,7 +4224,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>215</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>223</v>
       </c>
@@ -4456,7 +4450,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>232</v>
       </c>
@@ -4568,7 +4562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>238</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>243</v>
       </c>
@@ -4796,7 +4790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>250</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>257</v>
       </c>
@@ -5026,7 +5020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>261</v>
       </c>
@@ -5142,7 +5136,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>271</v>
       </c>
@@ -5258,7 +5252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>279</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>288</v>
       </c>
@@ -5486,7 +5480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>291</v>
       </c>
@@ -5600,7 +5594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>296</v>
       </c>
@@ -5712,7 +5706,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>305</v>
       </c>
@@ -5826,7 +5820,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>314</v>
       </c>
@@ -5942,7 +5936,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>324</v>
       </c>
@@ -6054,7 +6048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>325</v>
       </c>
@@ -6168,7 +6162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>326</v>
       </c>
@@ -6282,7 +6276,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>335</v>
       </c>
@@ -6398,7 +6392,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>343</v>
       </c>
@@ -6510,7 +6504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>350</v>
       </c>
@@ -6624,7 +6618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>357</v>
       </c>
@@ -6738,7 +6732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>361</v>
       </c>
@@ -6852,7 +6846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>368</v>
       </c>
@@ -6968,7 +6962,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>378</v>
       </c>
@@ -7084,7 +7078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>385</v>
       </c>
@@ -7200,7 +7194,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>393</v>
       </c>
@@ -7219,7 +7213,7 @@
         <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7314,7 +7308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>401</v>
       </c>
@@ -7426,7 +7420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>402</v>
       </c>
@@ -7540,7 +7534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>403</v>
       </c>
@@ -7656,7 +7650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>408</v>
       </c>
@@ -7770,7 +7764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>414</v>
       </c>
@@ -7886,7 +7880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>421</v>
       </c>
@@ -8002,7 +7996,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>429</v>
       </c>
@@ -8118,7 +8112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>437</v>
       </c>
@@ -8217,7 +8211,7 @@
         <v>435</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8232,7 +8226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>442</v>
       </c>
@@ -8344,7 +8338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>443</v>
       </c>
@@ -8454,7 +8448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>447</v>
       </c>
@@ -8568,7 +8562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>452</v>
       </c>
@@ -8682,7 +8676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>454</v>
       </c>
@@ -8798,7 +8792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>455</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8864,10 +8858,10 @@
         <v>178</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8903,7 +8897,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8912,12 +8906,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8940,17 +8934,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>234</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8999,7 +8993,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9026,12 +9020,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9060,13 +9054,13 @@
         <v>239</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>241</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9115,7 +9109,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9142,12 +9136,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9173,16 +9167,16 @@
         <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9192,7 +9186,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9210,10 +9204,10 @@
         <v>284</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9231,7 +9225,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9246,24 +9240,24 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9289,13 +9283,13 @@
         <v>185</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9324,10 +9318,10 @@
         <v>284</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9345,7 +9339,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9360,7 +9354,7 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9372,12 +9366,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9400,16 +9394,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9459,7 +9453,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9486,12 +9480,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9517,14 +9511,14 @@
         <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9573,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9600,12 +9594,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9631,16 +9625,16 @@
         <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9668,10 +9662,10 @@
         <v>178</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9689,7 +9683,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9704,24 +9698,24 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9747,13 +9741,13 @@
         <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9803,7 +9797,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9818,7 +9812,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9830,12 +9824,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9858,70 +9852,70 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9936,10 +9930,10 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9948,12 +9942,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9967,7 +9961,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
@@ -9976,17 +9970,17 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10035,7 +10029,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10059,15 +10053,15 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10090,19 +10084,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10151,7 +10145,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10169,21 +10163,21 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10206,19 +10200,19 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10267,7 +10261,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10282,24 +10276,24 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10325,10 +10319,10 @@
         <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10358,26 +10352,26 @@
         <v>284</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10395,24 +10389,24 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>80</v>
@@ -10437,10 +10431,10 @@
         <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10470,10 +10464,10 @@
         <v>284</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10491,7 +10485,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10509,25 +10503,25 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10546,17 +10540,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10605,7 +10599,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10623,21 +10617,21 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10660,13 +10654,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10717,7 +10711,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10735,21 +10729,21 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10775,10 +10769,10 @@
         <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10829,7 +10823,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10847,7 +10841,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10856,12 +10850,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10887,14 +10881,14 @@
         <v>422</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -10943,7 +10937,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10958,7 +10952,7 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>427</v>
@@ -10971,24 +10965,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:19:32+00:00</t>
+    <t>2023-02-08T12:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1395,19 +1395,16 @@
     <t>CarePlan.activity.detail.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t>CarePlan.activity.detail.extension:artRegimenLineInitiated</t>
-  </si>
-  <si>
-    <t>artRegimenLineInitiated</t>
+    <t>CarePlan.activity.detail.extension:artRegimenLine</t>
+  </si>
+  <si>
+    <t>artRegimenLine</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/art-regimen-line}
@@ -1419,12 +1416,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.extension:artRegimenLineCurrent</t>
-  </si>
-  <si>
-    <t>artRegimenLineCurrent</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -2108,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8351,7 +8342,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>444</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8369,10 +8360,10 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8450,13 +8441,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>443</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -8478,13 +8469,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8544,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>138</v>
@@ -8564,44 +8555,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8649,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8658,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>138</v>
@@ -8667,7 +8660,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8678,45 +8671,43 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8726,7 +8717,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8741,13 +8732,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8765,25 +8756,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>130</v>
+        <v>459</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8794,10 +8785,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8808,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8820,17 +8811,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8840,7 +8831,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8855,37 +8846,37 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8894,10 +8885,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>462</v>
+        <v>237</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8908,10 +8899,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8934,17 +8925,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8993,7 +8986,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9008,7 +9001,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>237</v>
@@ -9022,10 +9015,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9036,7 +9029,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9048,19 +9041,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>468</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>241</v>
+        <v>469</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9070,7 +9063,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -9085,13 +9078,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9109,13 +9102,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9124,24 +9117,24 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>242</v>
+        <v>474</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>237</v>
+        <v>475</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9152,7 +9145,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9167,17 +9160,15 @@
         <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9186,7 +9177,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9204,10 +9195,10 @@
         <v>284</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9225,13 +9216,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9240,24 +9231,24 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9280,16 +9271,16 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>185</v>
+        <v>485</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9315,31 +9306,31 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9354,7 +9345,7 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>486</v>
+        <v>374</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9368,10 +9359,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9394,18 +9385,18 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N64" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="O64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9453,7 +9444,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9468,10 +9459,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9482,10 +9473,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9493,32 +9484,34 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9543,13 +9536,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9567,13 +9560,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9582,24 +9575,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>391</v>
+        <v>501</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9607,7 +9600,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>
@@ -9616,26 +9609,24 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9659,13 +9650,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9683,10 +9674,10 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>87</v>
@@ -9698,24 +9689,24 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>505</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9732,72 +9723,76 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>185</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9812,10 +9807,10 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9826,10 +9821,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9846,76 +9841,72 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9930,24 +9921,24 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>518</v>
+        <v>320</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>321</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9970,17 +9961,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10029,7 +10022,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10044,24 +10037,24 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>321</v>
+        <v>529</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10072,7 +10065,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10084,19 +10077,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10145,13 +10138,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10160,24 +10153,24 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10185,10 +10178,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10200,20 +10193,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>535</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10237,37 +10226,35 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10276,26 +10263,28 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10319,10 +10308,10 @@
         <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10352,26 +10341,28 @@
         <v>284</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10389,31 +10380,29 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>87</v>
@@ -10428,16 +10417,18 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>552</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10461,13 +10452,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10485,7 +10476,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10503,25 +10494,25 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10540,18 +10531,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>558</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10599,7 +10588,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10617,21 +10606,21 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10654,13 +10643,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10711,7 +10700,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10729,21 +10718,21 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>565</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10754,7 +10743,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10766,16 +10755,18 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10823,13 +10814,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -10838,129 +10829,15 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>569</v>
+        <v>427</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>428</v>
       </c>
     </row>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:09:05+00:00</t>
+    <t>2023-02-08T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:26:19+00:00</t>
+    <t>2023-02-08T15:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1479,19 +1479,7 @@
     <t>Allows matching performed to planned as well as validation against protocols.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="45260-7"/&gt;
-    &lt;display value="HIV ART medication"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-arvtreatment-activity-type</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -2133,7 +2121,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -8475,7 +8463,7 @@
         <v>449</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9063,28 +9051,26 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9117,24 +9103,24 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9160,13 +9146,13 @@
         <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9195,10 +9181,10 @@
         <v>284</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9216,7 +9202,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9231,7 +9217,7 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9245,10 +9231,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9271,16 +9257,16 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9330,7 +9316,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9359,10 +9345,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9388,14 +9374,14 @@
         <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9444,7 +9430,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9473,10 +9459,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9502,16 +9488,16 @@
         <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9539,10 +9525,10 @@
         <v>178</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9560,7 +9546,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9575,24 +9561,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9618,13 +9604,13 @@
         <v>185</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9674,7 +9660,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9689,7 +9675,7 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9703,10 +9689,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9729,26 +9715,26 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="O67" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="R67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9792,7 +9778,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9807,10 +9793,10 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9821,10 +9807,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9847,17 +9833,17 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9906,7 +9892,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9930,15 +9916,15 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9961,19 +9947,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10022,7 +10008,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10040,21 +10026,21 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10077,19 +10063,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O70" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10138,7 +10124,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10153,24 +10139,24 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10196,10 +10182,10 @@
         <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10229,26 +10215,26 @@
         <v>284</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10266,24 +10252,24 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
@@ -10308,10 +10294,10 @@
         <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10341,10 +10327,10 @@
         <v>284</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10362,7 +10348,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10380,25 +10366,25 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10417,17 +10403,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10476,7 +10462,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10494,21 +10480,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10531,13 +10517,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10588,7 +10574,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10606,21 +10592,21 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10646,10 +10632,10 @@
         <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10700,7 +10686,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10718,7 +10704,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10729,10 +10715,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10758,14 +10744,14 @@
         <v>422</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10814,7 +10800,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10829,7 +10815,7 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>427</v>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:31:30+00:00</t>
+    <t>2023-02-09T07:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1715,6 +1715,9 @@
   </si>
   <si>
     <t>productCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-art-regimen</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -10324,13 +10327,11 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10377,14 +10378,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10403,17 +10404,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10462,7 +10463,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10480,21 +10481,21 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10517,13 +10518,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10574,7 +10575,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10592,21 +10593,21 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10632,10 +10633,10 @@
         <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10686,7 +10687,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10704,7 +10705,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10715,10 +10716,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10744,14 +10745,14 @@
         <v>422</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10800,7 +10801,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10815,7 +10816,7 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>427</v>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="593">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T07:17:47+00:00</t>
+    <t>2023-02-09T10:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1717,7 +1717,74 @@
     <t>productCodeableConcept</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-art-regimen</t>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -2090,7 +2157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2099,7 +2166,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.40625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -8673,7 +8740,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -9017,7 +9084,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -10327,11 +10394,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10378,14 +10447,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>549</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10404,18 +10473,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>551</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>553</v>
+        <v>162</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>554</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10463,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10475,38 +10542,38 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>555</v>
+        <v>164</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10518,15 +10585,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>551</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
+        <v>134</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10563,51 +10632,51 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>557</v>
+        <v>171</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>164</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10618,7 +10687,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10627,19 +10696,23 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10687,13 +10760,13 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
@@ -10705,21 +10778,21 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>428</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10727,10 +10800,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10739,20 +10812,22 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10801,13 +10876,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -10816,15 +10891,467 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AL76" t="s" s="2">
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>428</v>
       </c>
     </row>
